--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2009474.745485476</v>
+        <v>2005216.479832241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395845</v>
+        <v>10956994.25395846</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>389.1872681346975</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359323</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.360597680916584</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>200.4072903439969</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370748</v>
+        <v>44.3400149420196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353372</v>
+        <v>21.62032152353355</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>204.2681809517896</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>63.654606769103</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894003</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>87.50609247176787</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>309.6601859716645</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>145.197263412505</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>49.9467516048418</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>215.2878119998535</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>295.0712182556807</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.75613152455036</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>17.52472803114185</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6902077947045</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604095001</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.20984583428753</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899569</v>
+        <v>205.5383435306682</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.4515336021213</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.5380597272477</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>106.3612762946779</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>124.6209519256076</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U37" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.780116977249</v>
+        <v>2090.358196283344</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.780116977249</v>
+        <v>1721.395679342932</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.780116977249</v>
+        <v>1363.129980736182</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>977.3417281379373</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876414</v>
+        <v>566.3558233483297</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730795</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870193</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088464</v>
+        <v>239.5208398512381</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118206</v>
+        <v>319.3563181321747</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181021</v>
+        <v>868.785652738457</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639724</v>
+        <v>1496.738196660079</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680356</v>
+        <v>2120.219671700713</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2432.614370572565</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2432.614370572565</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="V2" t="n">
-        <v>2432.614370572565</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="W2" t="n">
-        <v>2079.845715302451</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="X2" t="n">
-        <v>1706.379957041371</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.379957041371</v>
+        <v>2476.958036347466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935058</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123788</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511275</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.025514245672</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.490956272557</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507497</v>
+        <v>97.48881342044074</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,22 +4412,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>310.1090089614082</v>
+        <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>811.9794026990015</v>
+        <v>882.147045590008</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133889</v>
+        <v>1519.785345024896</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790181</v>
+        <v>2142.515774969189</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751184</v>
+        <v>2299.29831884623</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4451,10 +4451,10 @@
         <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978528</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432.5051086916843</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="C4" t="n">
-        <v>368.2075260966308</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="D4" t="n">
-        <v>368.2075260966308</v>
+        <v>516.1206196790239</v>
       </c>
       <c r="E4" t="n">
         <v>368.2075260966308</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131522</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039126</v>
+        <v>336.0342731039132</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856105</v>
+        <v>539.7960902856114</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066355</v>
+        <v>744.1475233066368</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249408</v>
+        <v>916.8828514249424</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351316</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221466</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634857</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="S4" t="n">
-        <v>912.8607263634857</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="T4" t="n">
-        <v>687.1895968975712</v>
+        <v>955.3899708257429</v>
       </c>
       <c r="U4" t="n">
-        <v>687.1895968975712</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="V4" t="n">
-        <v>432.5051086916843</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="W4" t="n">
-        <v>432.5051086916843</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="X4" t="n">
-        <v>432.5051086916843</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="Y4" t="n">
-        <v>432.5051086916843</v>
+        <v>666.2372590913596</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1699.043895928971</v>
+        <v>1589.750670197795</v>
       </c>
       <c r="C5" t="n">
-        <v>1699.043895928971</v>
+        <v>1220.788153257384</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.255829290926</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.467576692682</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4573,16 +4573,16 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>683.1408478992852</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2488.382074543769</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2273.58221281148</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.246115248354</v>
+        <v>2273.58221281148</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.183227904783</v>
+        <v>1942.519325467909</v>
       </c>
       <c r="W5" t="n">
-        <v>2089.183227904783</v>
+        <v>1589.750670197795</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.183227904783</v>
+        <v>1589.750670197795</v>
       </c>
       <c r="Y5" t="n">
-        <v>1699.043895928971</v>
+        <v>1589.750670197795</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>346.1860297752922</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N6" t="n">
-        <v>1463.872370188858</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2013.308378941581</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2437.276147422417</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.2549186072772</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C7" t="n">
-        <v>497.2549186072772</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D7" t="n">
-        <v>497.2549186072772</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="T7" t="n">
-        <v>714.7173549707657</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="U7" t="n">
-        <v>714.7173549707657</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="V7" t="n">
-        <v>497.2549186072772</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="W7" t="n">
-        <v>497.2549186072772</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="X7" t="n">
-        <v>497.2549186072772</v>
+        <v>774.1947858536254</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.2549186072772</v>
+        <v>553.4022067100952</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1564.614594302836</v>
+        <v>761.0574921740545</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.614594302836</v>
+        <v>761.0574921740545</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.614594302836</v>
+        <v>402.791793567304</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.826341704592</v>
+        <v>402.791793567304</v>
       </c>
       <c r="F8" t="n">
-        <v>767.8404369149841</v>
+        <v>395.8462928181005</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7526551514116</v>
+        <v>382.798915094932</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>64.5757998674415</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M8" t="n">
-        <v>1216.914953624649</v>
+        <v>1829.339000802906</v>
       </c>
       <c r="N8" t="n">
-        <v>1844.222621684495</v>
+        <v>2023.673213694888</v>
       </c>
       <c r="O8" t="n">
-        <v>2391.383826451573</v>
+        <v>2193.842239011848</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.983089637072</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.214434366958</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X8" t="n">
-        <v>1951.214434366958</v>
+        <v>1537.796664213988</v>
       </c>
       <c r="Y8" t="n">
-        <v>1951.214434366958</v>
+        <v>1147.657332238176</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.1689827515233</v>
+        <v>684.4313707195215</v>
       </c>
       <c r="C10" t="n">
-        <v>349.1689827515233</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="D10" t="n">
-        <v>349.1689827515233</v>
+        <v>365.3785483792789</v>
       </c>
       <c r="E10" t="n">
-        <v>349.1689827515233</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="F10" t="n">
-        <v>349.1689827515233</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G10" t="n">
-        <v>331.4672372655215</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4998,16 +4998,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9511127930708</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>797.9511127930708</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>569.9615618950535</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y10" t="n">
-        <v>349.1689827515233</v>
+        <v>866.0798355497612</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5308,19 +5308,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2103.921287069095</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1814.846060413293</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.161572207406</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>2505.71655096576</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2357.803457383367</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>762.5477693179085</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2680.685310603266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3278.063798229818</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142287009</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>748.564831300794</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>598.4481918884583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>450.5350983060652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>450.5350983060652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>283.3389990209451</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832667</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855608</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199806</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993919</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956958</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058941</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058941</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.169680383432</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.485192177545</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7733,19 +7733,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576781</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188263</v>
+        <v>210.0515402467471</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188873141</v>
+        <v>7.328121188872885</v>
       </c>
       <c r="K3" t="n">
-        <v>193.5888300519671</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>431.3713932202022</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>89.54312379457414</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.8008973295439</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8461,19 +8461,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>98.93303561408925</v>
+        <v>86.1550019640076</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.77391660562004</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.8640922513188</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>125.1956044930007</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992872</v>
+        <v>80.64613085857593</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.3804465798160379</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>16.89590291932146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>33.93343655154594</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>40.9031863666612</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>45.44677382459308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>16.31315520054598</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>922143.693908599</v>
+        <v>922143.6939085989</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918862</v>
+        <v>787455.5478918874</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008501361</v>
+        <v>4906.247008500201</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765842</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157139</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909055</v>
+        <v>190891.9800909053</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26429,10 +26429,10 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707317</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707361</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707416</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707324</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707329</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051732</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490118.9103483107</v>
+        <v>-490118.9103483116</v>
       </c>
       <c r="C6" t="n">
-        <v>293313.1016374023</v>
+        <v>293313.1016374037</v>
       </c>
       <c r="D6" t="n">
-        <v>298219.3486459041</v>
+        <v>298219.3486459039</v>
       </c>
       <c r="E6" t="n">
-        <v>-318705.6818141946</v>
+        <v>-319053.0610685514</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.6654623903</v>
+        <v>456635.2862080326</v>
       </c>
       <c r="G6" t="n">
-        <v>456982.6654623902</v>
+        <v>456635.2862080334</v>
       </c>
       <c r="H6" t="n">
-        <v>456982.6654623896</v>
+        <v>456635.2862080329</v>
       </c>
       <c r="I6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080333</v>
       </c>
       <c r="J6" t="n">
-        <v>284621.6730621092</v>
+        <v>284274.2938077521</v>
       </c>
       <c r="K6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="L6" t="n">
-        <v>456982.66546239</v>
+        <v>456635.286208033</v>
       </c>
       <c r="M6" t="n">
-        <v>328905.0686466761</v>
+        <v>328557.6893923194</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080333</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="P6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080333</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225484</v>
+        <v>588.0881844225496</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,7 +26798,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225484</v>
+        <v>588.0881844225496</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915516725</v>
+        <v>5.387915915515451</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.7512957747187</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916896</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459285</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12.33938926110051</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687787</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.50480425168783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>103.5922143295248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768617</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775215</v>
+        <v>18.382756997752</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.9083256994874</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.02285564901848</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>9.455623715635198</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>79.2264300629495</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27833,16 +27833,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>36.84983132397446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>19.96966581953484</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>106.7399093693399</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.3960485234286</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.89444555739033</v>
       </c>
     </row>
     <row r="11">
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>4.033906286909852e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718785</v>
+        <v>2.364173605718791</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956752</v>
+        <v>24.21209293956757</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447357</v>
+        <v>91.14480293447376</v>
       </c>
       <c r="J2" t="n">
-        <v>200.656279568375</v>
+        <v>200.6562795683754</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984512</v>
+        <v>300.7317482984519</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844676</v>
+        <v>373.0843262844684</v>
       </c>
       <c r="M2" t="n">
-        <v>415.128198645169</v>
+        <v>415.1281986451699</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024176</v>
+        <v>421.8454069024185</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105514</v>
+        <v>398.3366556105522</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193687</v>
+        <v>339.9711197193695</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645647</v>
+        <v>255.3041524645652</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602328</v>
+        <v>148.5085202602331</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031688</v>
+        <v>53.87360604031699</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903399</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575028</v>
+        <v>0.1891338884575032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682463</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111747</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.5518136577076</v>
+        <v>43.55181365770769</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777936</v>
+        <v>119.5095054777938</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555185</v>
+        <v>204.260780055519</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305496</v>
+        <v>274.6538261305502</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102888</v>
+        <v>320.5080605102895</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704972</v>
+        <v>328.9909551704978</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808488</v>
+        <v>300.9624503808495</v>
       </c>
       <c r="P3" t="n">
-        <v>241.548899748952</v>
+        <v>241.5488997489525</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361684</v>
+        <v>161.4690426361687</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910941</v>
+        <v>78.53751262910959</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820274</v>
+        <v>23.49578736820279</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908695</v>
+        <v>5.098613598908707</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753046</v>
+        <v>0.08322002609753064</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0604868899423</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577912</v>
+        <v>9.428692530577932</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753755</v>
+        <v>31.89173301753761</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892062</v>
+        <v>74.97642311892078</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314781</v>
+        <v>123.2092950314784</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646944</v>
+        <v>157.6654781646947</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934098</v>
+        <v>166.2361403934102</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308977</v>
+        <v>162.2834165308981</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983899</v>
+        <v>149.8950014983902</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435669</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.8013158478048</v>
+        <v>88.80131584780499</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776923</v>
+        <v>47.68334688776933</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472172</v>
+        <v>18.48139425472176</v>
       </c>
       <c r="T4" t="n">
-        <v>4.53117125702619</v>
+        <v>4.5311712570262</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139826</v>
+        <v>0.05784473945139838</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857158</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655508</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168868</v>
+        <v>188.7069902137629</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347069</v>
+        <v>80.64189725347131</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649308</v>
+        <v>554.9791258649316</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107287</v>
+        <v>634.2954989107296</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178109</v>
+        <v>629.7792677178118</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076909</v>
+        <v>378.2899844356126</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640992</v>
+        <v>108.7381239640999</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.9984625901152</v>
+        <v>32.99846259011574</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>260.0081711331266</v>
+        <v>330.8845780937386</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541346</v>
+        <v>506.9397916541352</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382704</v>
+        <v>644.079090338271</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871639</v>
+        <v>629.0206363073668</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131339</v>
+        <v>158.3662059364051</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745589</v>
+        <v>107.5744923346223</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014687</v>
+        <v>231.5645562859963</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055953</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250105</v>
+        <v>185.2555034250108</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552504</v>
+        <v>205.8200173552508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101263</v>
+        <v>206.4155889101267</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124296</v>
+        <v>174.4801294124299</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084604</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110416</v>
+        <v>2.639272596110601</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>289.865005493981</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
@@ -34953,7 +34953,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35020,13 +35020,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>228.1588793659822</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.7675046042681</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35181,19 +35181,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>210.7858894014898</v>
+        <v>198.0078557514081</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023825</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>302.4748895856766</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060495</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2005216.479832241</v>
+        <v>2006977.010135026</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10066846.84395687</v>
+        <v>10066846.84395686</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>389.1872681346975</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>127.8910707786374</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916584</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>44.3400149420196</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353355</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.13681693000873</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>87.50609247176787</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>145.197263412505</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>102.9954517566436</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.9467516048418</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>53.31224870781529</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>257.2258996561536</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.75613152455036</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>99.62982087400962</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.6902077947045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>55.52079624060743</v>
       </c>
       <c r="H13" t="n">
-        <v>55.52079624060384</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365874</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695391</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>67.96386702300497</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>61.66004604095001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>205.5383435306682</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206841</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.4515336021213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>72.23766645968377</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327292</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444096</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881315</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.24570521548653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>23.10998325717173</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.814130455270078</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>31.26260713376619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444119</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8253826161911274</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892427406</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.358196283344</v>
+        <v>2243.532303912996</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.395679342932</v>
+        <v>1874.569786972585</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.129980736182</v>
+        <v>1516.304088365834</v>
       </c>
       <c r="E2" t="n">
-        <v>977.3417281379373</v>
+        <v>1130.51583576759</v>
       </c>
       <c r="F2" t="n">
-        <v>566.3558233483297</v>
+        <v>719.5299309779823</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870191</v>
+        <v>302.4202704634204</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870191</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512381</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>319.3563181321747</v>
+        <v>151.950669111822</v>
       </c>
       <c r="L2" t="n">
-        <v>868.785652738457</v>
+        <v>701.3800037181045</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.738196660079</v>
+        <v>1329.332547639727</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.219671700713</v>
+        <v>1952.814022680361</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2284.534915538663</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2392.185658263122</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.958036347466</v>
+        <v>2243.532303912996</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510377</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>198.5178481733488</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>97.48881342044074</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>882.147045590008</v>
+        <v>999.722330600029</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024896</v>
+        <v>1637.360630034917</v>
       </c>
       <c r="N3" t="n">
-        <v>2142.515774969189</v>
+        <v>2142.515774969188</v>
       </c>
       <c r="O3" t="n">
         <v>2299.29831884623</v>
@@ -4433,28 +4433,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.2372590913596</v>
+        <v>862.1314983912288</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2372590913596</v>
+        <v>820.5791580578866</v>
       </c>
       <c r="D4" t="n">
-        <v>516.1206196790239</v>
+        <v>670.4625186455509</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2075260966308</v>
+        <v>522.5494250631577</v>
       </c>
       <c r="F4" t="n">
-        <v>221.3175785987204</v>
+        <v>375.6594775652474</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131524</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039132</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856114</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066368</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249424</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221468</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>955.3899708257429</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>666.2372590913596</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2372590913596</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>666.2372590913596</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>666.2372590913596</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.2372590913596</v>
+        <v>1043.779963221469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.750670197795</v>
+        <v>816.7477492169796</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.788153257384</v>
+        <v>816.7477492169796</v>
       </c>
       <c r="D5" t="n">
-        <v>862.5224546506331</v>
+        <v>458.4820506102291</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7342020523889</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="F5" t="n">
         <v>65.74829726278134</v>
@@ -4570,10 +4570,10 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M5" t="n">
         <v>996.277937792829</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2488.382074543769</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2273.58221281148</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2273.58221281148</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V5" t="n">
-        <v>1942.519325467909</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W5" t="n">
-        <v>1589.750670197795</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X5" t="n">
-        <v>1589.750670197795</v>
+        <v>1593.486921256913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.750670197795</v>
+        <v>1203.347589281101</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>346.1860297752922</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>986.7313792423969</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.7537418798555</v>
+        <v>516.110805624533</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8175589519486</v>
+        <v>516.110805624533</v>
       </c>
       <c r="D7" t="n">
-        <v>52.70091953961285</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E7" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>1002.184336751643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1002.184336751643</v>
+        <v>998.7848447284372</v>
       </c>
       <c r="V7" t="n">
-        <v>1002.184336751643</v>
+        <v>744.1003565225503</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.184336751643</v>
+        <v>744.1003565225503</v>
       </c>
       <c r="X7" t="n">
-        <v>774.1947858536254</v>
+        <v>516.110805624533</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.4022067100952</v>
+        <v>516.110805624533</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.0574921740545</v>
+        <v>332.5179390788066</v>
       </c>
       <c r="C8" t="n">
-        <v>761.0574921740545</v>
+        <v>332.5179390788066</v>
       </c>
       <c r="D8" t="n">
-        <v>402.791793567304</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="E8" t="n">
-        <v>402.791793567304</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="F8" t="n">
-        <v>395.8462928181005</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>382.798915094932</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>64.5757998674415</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4810,16 +4810,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1829.339000802906</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>2023.673213694888</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2193.842239011848</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.031077745182</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W8" t="n">
-        <v>1911.262422475068</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X8" t="n">
-        <v>1537.796664213988</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y8" t="n">
-        <v>1147.657332238176</v>
+        <v>719.1177791429284</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>2019.125398128049</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4313707195215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>515.4951877916146</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3785483792789</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4989,25 +4989,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>744.5591335503432</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>455.1419635133826</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>455.1419635133826</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.0798355497612</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>763.7541388327679</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>594.817955904861</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>444.7013164925253</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>296.7882229101322</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>149.8982754122218</v>
       </c>
       <c r="G13" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5238,13 +5238,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704555</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1166.195182806538</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>945.4026036630077</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946122</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>1023.7214065394</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>854.7852236114928</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>704.6685841991571</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162841</v>
+        <v>1433.359422267657</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.833967264824</v>
+        <v>1205.369871369639</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.041388121294</v>
+        <v>1205.369871369639</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004709</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616857</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>132.8188155394338</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2443.110426554735</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2260.255592209639</v>
       </c>
       <c r="T37" t="n">
-        <v>2415.384692536053</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362667</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.129363765926</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7672,28 +7672,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400635</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270365</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854698</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648811</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138333</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703032</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>210.0515402467471</v>
+        <v>166.8331647589138</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872885</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>431.3713932202022</v>
+        <v>312.6084790686646</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>101.2797400137713</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>89.54312379457414</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>86.1550019640076</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>279.3106012776028</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-5.529574310247955e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>110.0033420516614</v>
       </c>
       <c r="H13" t="n">
-        <v>84.77391660562004</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>99.28295407562287</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.8640922513188</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>80.64613085857593</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3804465798160379</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>74.19629618688541</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.149569576838985e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.70888054695304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>62.56111625485161</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.1428431935221</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.54986409393054</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194983</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>922143.6939085989</v>
+        <v>922143.6939085987</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246294</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830047</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.619783004</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918874</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500201</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765842</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909053</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707443</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707426</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707322</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707308</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707308</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707226</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707324</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707325</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707329</v>
+        <v>6897.424496707332</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490118.9103483116</v>
+        <v>-490118.9103483122</v>
       </c>
       <c r="C6" t="n">
-        <v>293313.1016374037</v>
+        <v>293313.1016374042</v>
       </c>
       <c r="D6" t="n">
-        <v>298219.3486459039</v>
+        <v>298219.3486459045</v>
       </c>
       <c r="E6" t="n">
-        <v>-319053.0610685514</v>
+        <v>-318740.4197396306</v>
       </c>
       <c r="F6" t="n">
-        <v>456635.2862080326</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="G6" t="n">
-        <v>456635.2862080334</v>
+        <v>456947.9275369544</v>
       </c>
       <c r="H6" t="n">
-        <v>456635.2862080329</v>
+        <v>456947.9275369541</v>
       </c>
       <c r="I6" t="n">
-        <v>456635.2862080333</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="J6" t="n">
-        <v>284274.2938077521</v>
+        <v>284586.9351366732</v>
       </c>
       <c r="K6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369541</v>
       </c>
       <c r="L6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="M6" t="n">
-        <v>328557.6893923194</v>
+        <v>328870.3307212405</v>
       </c>
       <c r="N6" t="n">
-        <v>456635.2862080333</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="O6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369545</v>
       </c>
       <c r="P6" t="n">
-        <v>456635.2862080333</v>
+        <v>456947.9275369538</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515451</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.7512957747187</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>187.3716383975622</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.504804251687787</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687439</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>126.1100041686191</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.382756997752</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>135.9083256994874</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.455623715635198</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>266.7356489218254</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.2264300629495</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27830,10 +27830,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>232.9484059502817</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>97.4571419645294</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>106.7399093693399</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>152.5078224498184</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.89444555739033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.632226529785437e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.16185674531327e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.379880294097117e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-2.867266579020466e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30899,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718791</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956757</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447376</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683754</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984519</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844684</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451699</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024185</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105522</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193695</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645652</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602331</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031699</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575032</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
         <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770769</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777938</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.260780055519</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305502</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102895</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704978</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808495</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489525</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361687</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910959</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820279</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908707</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753064</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577932</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753761</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892078</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314784</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646947</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934102</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308981</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983902</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
         <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780499</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776933</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472176</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.5311712570262</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139838</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>545.9074025036812</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137629</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347131</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649316</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107296</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178118</v>
+        <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>378.2899844356126</v>
+        <v>335.0716089477796</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640999</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011574</v>
+        <v>245.3134532500206</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937386</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541352</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.079090338271</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0206363073668</v>
+        <v>510.2577221558293</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3662059364051</v>
+        <v>158.3662059364053</v>
       </c>
       <c r="P3" t="n">
-        <v>107.5744923346223</v>
+        <v>107.5744923346225</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859963</v>
+        <v>231.5645562859964</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250108</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552508</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101267</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124299</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110601</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>289.865005493981</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>228.1588793659822</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>198.0078557514081</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35257,19 +35257,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>389.0981038304299</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>403.7733685816629</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998908</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
